--- a/dataExcel/【MAG-7 _ 正义 (略有磨损)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【MAG-7 _ 正义 (略有磨损)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,119 +422,119 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-14 22:55:30</v>
+        <v>2023-09-17 22:58:00</v>
       </c>
       <c r="B8">
-        <v>33.9</v>
+        <v>35.4</v>
       </c>
       <c r="C8">
-        <v>44.71</v>
+        <v>46.48</v>
       </c>
       <c r="D8">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="E8">
         <v>32</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-15 04:05:28</v>
+        <v>2023-09-18 04:09:02</v>
       </c>
       <c r="B9">
-        <v>34.59</v>
+        <v>35.61</v>
       </c>
       <c r="C9">
-        <v>47.66</v>
+        <v>46.48</v>
       </c>
       <c r="D9">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="E9">
-        <v>32.2</v>
+        <v>32.29</v>
       </c>
       <c r="F9">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-15 09:15:27</v>
+        <v>2023-09-18 09:18:03</v>
       </c>
       <c r="B10">
-        <v>34.35</v>
+        <v>35.42</v>
       </c>
       <c r="C10">
-        <v>44.97</v>
+        <v>46.48</v>
       </c>
       <c r="D10">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="E10">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-16 05:01:52</v>
+        <v>2023-09-18 14:29:23</v>
       </c>
       <c r="B11">
-        <v>35.54</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>47.87</v>
+        <v>46.48</v>
       </c>
       <c r="D11">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="E11">
         <v>32.6</v>
       </c>
       <c r="F11">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 10:26:49</v>
+        <v>2023-09-18 19:38:48</v>
       </c>
       <c r="B12">
-        <v>35.07</v>
+        <v>33.34</v>
       </c>
       <c r="C12">
-        <v>49.76</v>
+        <v>46.48</v>
       </c>
       <c r="D12">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E12">
-        <v>32.5</v>
+        <v>31.5</v>
       </c>
       <c r="F12">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-16 15:35:47</v>
+        <v>2023-09-19 00:48:05</v>
       </c>
       <c r="B13">
-        <v>32.76</v>
+        <v>34.9</v>
       </c>
       <c r="C13">
-        <v>49.98</v>
+        <v>46.48</v>
       </c>
       <c r="D13">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="E13">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="F13">
         <v>41</v>
@@ -542,19 +542,19 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-16 20:52:56</v>
+        <v>2023-09-19 06:00:29</v>
       </c>
       <c r="B14">
-        <v>33.9</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>45.98</v>
+        <v>46.09</v>
       </c>
       <c r="D14">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E14">
-        <v>33.29</v>
+        <v>32.5</v>
       </c>
       <c r="F14">
         <v>46</v>
@@ -562,79 +562,79 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 02:09:33</v>
+        <v>2023-09-19 11:07:36</v>
       </c>
       <c r="B15">
-        <v>36.04</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>51.29</v>
+        <v>46.45</v>
       </c>
       <c r="D15">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="E15">
-        <v>33.29</v>
+        <v>31.8</v>
       </c>
       <c r="F15">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 07:25:34</v>
+        <v>2023-09-19 16:19:18</v>
       </c>
       <c r="B16">
-        <v>36.79</v>
+        <v>33.6</v>
       </c>
       <c r="C16">
-        <v>50.48</v>
+        <v>46.52</v>
       </c>
       <c r="D16">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="E16">
-        <v>32.29</v>
+        <v>31.8</v>
       </c>
       <c r="F16">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 12:39:20</v>
+        <v>2023-09-19 21:31:49</v>
       </c>
       <c r="B17">
-        <v>36.59</v>
+        <v>33.28</v>
       </c>
       <c r="C17">
-        <v>53.83</v>
+        <v>46.52</v>
       </c>
       <c r="D17">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <v>31.8</v>
       </c>
       <c r="F17">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 17:49:42</v>
+        <v>2023-09-20 02:37:41</v>
       </c>
       <c r="B18">
-        <v>35.83</v>
+        <v>33.38</v>
       </c>
       <c r="C18">
-        <v>46.41</v>
+        <v>46.31</v>
       </c>
       <c r="D18">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="E18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18">
         <v>38</v>
@@ -642,136 +642,136 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 22:58:00</v>
+        <v>2023-09-20 07:50:42</v>
       </c>
       <c r="B19">
-        <v>35.4</v>
+        <v>33.28</v>
       </c>
       <c r="C19">
-        <v>46.48</v>
+        <v>45.9</v>
       </c>
       <c r="D19">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="E19">
         <v>32</v>
       </c>
       <c r="F19">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 04:09:02</v>
+        <v>2023-09-20 12:58:22</v>
       </c>
       <c r="B20">
-        <v>35.61</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>46.48</v>
+        <v>45.9</v>
       </c>
       <c r="D20">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="E20">
-        <v>32.29</v>
+        <v>32.2</v>
       </c>
       <c r="F20">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 09:18:03</v>
+        <v>2023-09-20 18:11:22</v>
       </c>
       <c r="B21">
-        <v>35.42</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>46.48</v>
+        <v>45.9</v>
       </c>
       <c r="D21">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="E21">
-        <v>32.6</v>
+        <v>32.1</v>
       </c>
       <c r="F21">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 14:29:23</v>
+        <v>2023-09-20 23:17:23</v>
       </c>
       <c r="B22">
-        <v>34</v>
+        <v>34.7</v>
       </c>
       <c r="C22">
-        <v>46.48</v>
+        <v>46.12</v>
       </c>
       <c r="D22">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="E22">
-        <v>32.6</v>
+        <v>32.2</v>
       </c>
       <c r="F22">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 19:38:48</v>
+        <v>2023-09-21 04:28:23</v>
       </c>
       <c r="B23">
-        <v>33.34</v>
+        <v>34.6</v>
       </c>
       <c r="C23">
-        <v>46.48</v>
+        <v>45.9</v>
       </c>
       <c r="D23">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E23">
-        <v>31.5</v>
+        <v>32.2</v>
       </c>
       <c r="F23">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 00:48:05</v>
+        <v>2023-09-21 09:41:23</v>
       </c>
       <c r="B24">
-        <v>34.9</v>
+        <v>33.9</v>
       </c>
       <c r="C24">
-        <v>46.48</v>
+        <v>45.91</v>
       </c>
       <c r="D24">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E24">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="F24">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 06:00:29</v>
+        <v>2023-09-21 14:48:33</v>
       </c>
       <c r="B25">
-        <v>35</v>
+        <v>35.18</v>
       </c>
       <c r="C25">
-        <v>46.09</v>
+        <v>45.91</v>
       </c>
       <c r="D25">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E25">
         <v>32.5</v>
@@ -782,1759 +782,1759 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 11:07:36</v>
+        <v>2023-09-21 20:01:43</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>34.45</v>
       </c>
       <c r="C26">
-        <v>46.45</v>
+        <v>45.91</v>
       </c>
       <c r="D26">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E26">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="F26">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 16:19:18</v>
+        <v>2023-09-22 01:08:22</v>
       </c>
       <c r="B27">
-        <v>33.6</v>
+        <v>34.67</v>
       </c>
       <c r="C27">
-        <v>46.52</v>
+        <v>45.84</v>
       </c>
       <c r="D27">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E27">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="F27">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 21:31:49</v>
+        <v>2023-09-22 06:19:17</v>
       </c>
       <c r="B28">
-        <v>33.28</v>
+        <v>34.36</v>
       </c>
       <c r="C28">
-        <v>46.52</v>
+        <v>46.19</v>
       </c>
       <c r="D28">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="E28">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="F28">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-20 02:37:41</v>
+        <v>2023-09-22 11:29:18</v>
       </c>
       <c r="B29">
-        <v>33.38</v>
+        <v>34.29</v>
       </c>
       <c r="C29">
-        <v>46.31</v>
+        <v>46.19</v>
       </c>
       <c r="D29">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="E29">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="F29">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-20 07:50:42</v>
+        <v>2023-09-22 16:40:10</v>
       </c>
       <c r="B30">
-        <v>33.28</v>
+        <v>33.15</v>
       </c>
       <c r="C30">
-        <v>45.9</v>
+        <v>46.19</v>
       </c>
       <c r="D30">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="F30">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-20 12:58:22</v>
+        <v>2023-09-22 21:52:13</v>
       </c>
       <c r="B31">
-        <v>34</v>
+        <v>33.78</v>
       </c>
       <c r="C31">
-        <v>45.9</v>
+        <v>46.19</v>
       </c>
       <c r="D31">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="E31">
-        <v>32.2</v>
+        <v>31.7</v>
       </c>
       <c r="F31">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 18:11:22</v>
+        <v>2023-09-23 02:58:50</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>34.2</v>
       </c>
       <c r="C32">
-        <v>45.9</v>
+        <v>45.82</v>
       </c>
       <c r="D32">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="E32">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="F32">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 23:17:23</v>
+        <v>2023-09-23 08:10:03</v>
       </c>
       <c r="B33">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>46.12</v>
+        <v>45.76</v>
       </c>
       <c r="D33">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="E33">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="F33">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-21 04:28:23</v>
+        <v>2023-09-23 13:20:47</v>
       </c>
       <c r="B34">
-        <v>34.6</v>
+        <v>34.29</v>
       </c>
       <c r="C34">
-        <v>45.9</v>
+        <v>45.76</v>
       </c>
       <c r="D34">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="E34">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="F34">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-21 09:41:23</v>
+        <v>2023-09-23 18:29:13</v>
       </c>
       <c r="B35">
-        <v>33.9</v>
+        <v>33.4</v>
       </c>
       <c r="C35">
-        <v>45.91</v>
+        <v>45.76</v>
       </c>
       <c r="D35">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E35">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="F35">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-21 14:48:33</v>
+        <v>2023-09-23 23:39:05</v>
       </c>
       <c r="B36">
-        <v>35.18</v>
+        <v>33.79</v>
       </c>
       <c r="C36">
-        <v>45.91</v>
+        <v>45.76</v>
       </c>
       <c r="D36">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="E36">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="F36">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-21 20:01:43</v>
+        <v>2023-09-24 04:50:50</v>
       </c>
       <c r="B37">
-        <v>34.45</v>
+        <v>33.79</v>
       </c>
       <c r="C37">
-        <v>45.91</v>
+        <v>44.15</v>
       </c>
       <c r="D37">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="E37">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="F37">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-22 01:08:22</v>
+        <v>2023-09-24 10:00:04</v>
       </c>
       <c r="B38">
-        <v>34.67</v>
+        <v>33.7</v>
       </c>
       <c r="C38">
-        <v>45.84</v>
+        <v>44.66</v>
       </c>
       <c r="D38">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="E38">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="F38">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-22 06:19:17</v>
+        <v>2023-09-24 15:10:01</v>
       </c>
       <c r="B39">
-        <v>34.36</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>46.19</v>
+        <v>44.66</v>
       </c>
       <c r="D39">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="E39">
-        <v>32.5</v>
+        <v>31.3</v>
       </c>
       <c r="F39">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-22 11:29:18</v>
+        <v>2023-09-24 20:20:38</v>
       </c>
       <c r="B40">
-        <v>34.29</v>
+        <v>33.5</v>
       </c>
       <c r="C40">
-        <v>46.19</v>
+        <v>45.75</v>
       </c>
       <c r="D40">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E40">
-        <v>32.5</v>
+        <v>31.4</v>
       </c>
       <c r="F40">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-22 16:40:10</v>
+        <v>2023-09-25 01:29:28</v>
       </c>
       <c r="B41">
-        <v>33.15</v>
+        <v>33.09</v>
       </c>
       <c r="C41">
-        <v>46.19</v>
+        <v>44.95</v>
       </c>
       <c r="D41">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E41">
-        <v>32.5</v>
+        <v>31.4</v>
       </c>
       <c r="F41">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-22 21:52:13</v>
+        <v>2023-09-25 06:40:00</v>
       </c>
       <c r="B42">
-        <v>33.78</v>
+        <v>32.79</v>
       </c>
       <c r="C42">
-        <v>46.19</v>
+        <v>44.66</v>
       </c>
       <c r="D42">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E42">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="F42">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-23 02:58:50</v>
+        <v>2023-09-25 11:49:41</v>
       </c>
       <c r="B43">
-        <v>34.2</v>
+        <v>33.1</v>
       </c>
       <c r="C43">
-        <v>45.82</v>
+        <v>45.1</v>
       </c>
       <c r="D43">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="E43">
-        <v>32</v>
+        <v>31.6</v>
       </c>
       <c r="F43">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-23 08:10:03</v>
+        <v>2023-09-25 17:01:55</v>
       </c>
       <c r="B44">
-        <v>34</v>
+        <v>32.9</v>
       </c>
       <c r="C44">
-        <v>45.76</v>
+        <v>44.88</v>
       </c>
       <c r="D44">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="E44">
-        <v>32.1</v>
+        <v>31.3</v>
       </c>
       <c r="F44">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-23 13:20:47</v>
+        <v>2023-09-25 22:09:48</v>
       </c>
       <c r="B45">
-        <v>34.29</v>
+        <v>32.29</v>
       </c>
       <c r="C45">
-        <v>45.76</v>
+        <v>46.34</v>
       </c>
       <c r="D45">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="E45">
-        <v>32.1</v>
+        <v>31.6</v>
       </c>
       <c r="F45">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-23 18:29:13</v>
+        <v>2023-09-26 03:19:46</v>
       </c>
       <c r="B46">
-        <v>33.4</v>
+        <v>32.69</v>
       </c>
       <c r="C46">
-        <v>45.76</v>
+        <v>44.15</v>
       </c>
       <c r="D46">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="E46">
-        <v>32.1</v>
+        <v>31.5</v>
       </c>
       <c r="F46">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-23 23:39:05</v>
+        <v>2023-09-26 08:30:20</v>
       </c>
       <c r="B47">
-        <v>33.79</v>
+        <v>32.7</v>
       </c>
       <c r="C47">
-        <v>45.76</v>
+        <v>44.24</v>
       </c>
       <c r="D47">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="E47">
-        <v>32.1</v>
+        <v>31.6</v>
       </c>
       <c r="F47">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-24 04:50:50</v>
+        <v>2023-09-26 13:40:32</v>
       </c>
       <c r="B48">
-        <v>33.79</v>
+        <v>32.9</v>
       </c>
       <c r="C48">
-        <v>44.15</v>
+        <v>44.31</v>
       </c>
       <c r="D48">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="E48">
-        <v>32.1</v>
+        <v>31.6</v>
       </c>
       <c r="F48">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-24 10:00:04</v>
+        <v>2023-09-26 18:50:42</v>
       </c>
       <c r="B49">
-        <v>33.7</v>
+        <v>31.95</v>
       </c>
       <c r="C49">
-        <v>44.66</v>
+        <v>44.31</v>
       </c>
       <c r="D49">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="E49">
-        <v>32.1</v>
+        <v>31.3</v>
       </c>
       <c r="F49">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-24 15:10:01</v>
+        <v>2023-09-27 00:00:22</v>
       </c>
       <c r="B50">
-        <v>33</v>
+        <v>32.29</v>
       </c>
       <c r="C50">
-        <v>44.66</v>
+        <v>44.31</v>
       </c>
       <c r="D50">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="E50">
-        <v>31.3</v>
+        <v>30.3</v>
       </c>
       <c r="F50">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-24 20:20:38</v>
+        <v>2023-09-27 05:11:41</v>
       </c>
       <c r="B51">
-        <v>33.5</v>
+        <v>32.2</v>
       </c>
       <c r="C51">
-        <v>45.75</v>
+        <v>44.38</v>
       </c>
       <c r="D51">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="E51">
-        <v>31.4</v>
+        <v>30.3</v>
       </c>
       <c r="F51">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-25 01:29:28</v>
+        <v>2023-09-27 10:20:20</v>
       </c>
       <c r="B52">
-        <v>33.09</v>
+        <v>32.29</v>
       </c>
       <c r="C52">
-        <v>44.95</v>
+        <v>44.38</v>
       </c>
       <c r="D52">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="E52">
-        <v>31.4</v>
+        <v>30.2</v>
       </c>
       <c r="F52">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-25 06:40:00</v>
+        <v>2023-09-27 15:30:18</v>
       </c>
       <c r="B53">
-        <v>32.79</v>
+        <v>32</v>
       </c>
       <c r="C53">
-        <v>44.66</v>
+        <v>46.72</v>
       </c>
       <c r="D53">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="E53">
-        <v>31.3</v>
+        <v>30.2</v>
       </c>
       <c r="F53">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-25 11:49:41</v>
+        <v>2023-09-27 20:40:17</v>
       </c>
       <c r="B54">
-        <v>33.1</v>
+        <v>31.88</v>
       </c>
       <c r="C54">
-        <v>45.1</v>
+        <v>45.62</v>
       </c>
       <c r="D54">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="E54">
-        <v>31.6</v>
+        <v>30.2</v>
       </c>
       <c r="F54">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-25 17:01:55</v>
+        <v>2023-09-28 01:43:23</v>
       </c>
       <c r="B55">
-        <v>32.9</v>
+        <v>31.7</v>
       </c>
       <c r="C55">
-        <v>44.88</v>
+        <v>45.19</v>
       </c>
       <c r="D55">
-        <v>317</v>
+        <v>382</v>
       </c>
       <c r="E55">
-        <v>31.3</v>
+        <v>30.3</v>
       </c>
       <c r="F55">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-25 22:09:48</v>
+        <v>2023-09-28 06:53:23</v>
       </c>
       <c r="B56">
-        <v>32.29</v>
+        <v>31.9</v>
       </c>
       <c r="C56">
-        <v>46.34</v>
+        <v>44.16</v>
       </c>
       <c r="D56">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="E56">
-        <v>31.6</v>
+        <v>30.7</v>
       </c>
       <c r="F56">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-26 03:19:46</v>
+        <v>2023-09-28 12:03:21</v>
       </c>
       <c r="B57">
-        <v>32.69</v>
+        <v>32</v>
       </c>
       <c r="C57">
-        <v>44.15</v>
+        <v>44.08</v>
       </c>
       <c r="D57">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="E57">
-        <v>31.5</v>
+        <v>30.7</v>
       </c>
       <c r="F57">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-26 08:30:20</v>
+        <v>2023-09-28 17:13:20</v>
       </c>
       <c r="B58">
-        <v>32.7</v>
+        <v>31.19</v>
       </c>
       <c r="C58">
-        <v>44.24</v>
+        <v>43.5</v>
       </c>
       <c r="D58">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="E58">
-        <v>31.6</v>
+        <v>30.9</v>
       </c>
       <c r="F58">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-26 13:40:32</v>
+        <v>2023-09-28 22:23:18</v>
       </c>
       <c r="B59">
-        <v>32.9</v>
+        <v>30</v>
       </c>
       <c r="C59">
-        <v>44.31</v>
+        <v>42.04</v>
       </c>
       <c r="D59">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="E59">
-        <v>31.6</v>
+        <v>30.1</v>
       </c>
       <c r="F59">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-26 18:50:42</v>
+        <v>2023-09-29 03:33:16</v>
       </c>
       <c r="B60">
-        <v>31.95</v>
+        <v>30.7</v>
       </c>
       <c r="C60">
-        <v>44.31</v>
+        <v>42.49</v>
       </c>
       <c r="D60">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="E60">
-        <v>31.3</v>
+        <v>27.1</v>
       </c>
       <c r="F60">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-27 00:00:22</v>
+        <v>2023-09-29 08:43:14</v>
       </c>
       <c r="B61">
-        <v>32.29</v>
+        <v>29.9</v>
       </c>
       <c r="C61">
-        <v>44.31</v>
+        <v>43.37</v>
       </c>
       <c r="D61">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="E61">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="F61">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-27 05:11:41</v>
+        <v>2023-09-29 13:54:34</v>
       </c>
       <c r="B62">
-        <v>32.2</v>
+        <v>29.5</v>
       </c>
       <c r="C62">
-        <v>44.38</v>
+        <v>41.76</v>
       </c>
       <c r="D62">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="E62">
-        <v>30.3</v>
+        <v>27.1</v>
       </c>
       <c r="F62">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-27 10:20:20</v>
+        <v>2023-09-29 19:03:20</v>
       </c>
       <c r="B63">
-        <v>32.29</v>
+        <v>29.8</v>
       </c>
       <c r="C63">
-        <v>44.38</v>
+        <v>41.4</v>
       </c>
       <c r="D63">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="E63">
-        <v>30.2</v>
+        <v>27.6</v>
       </c>
       <c r="F63">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-27 15:30:18</v>
+        <v>2023-09-30 00:13:20</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>30.09</v>
       </c>
       <c r="C64">
-        <v>46.72</v>
+        <v>41.47</v>
       </c>
       <c r="D64">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="E64">
-        <v>30.2</v>
+        <v>27.7</v>
       </c>
       <c r="F64">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-27 20:40:17</v>
+        <v>2023-09-30 05:18:19</v>
       </c>
       <c r="B65">
-        <v>31.88</v>
+        <v>30.1</v>
       </c>
       <c r="C65">
-        <v>45.62</v>
+        <v>40.78</v>
       </c>
       <c r="D65">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="E65">
-        <v>30.2</v>
+        <v>28</v>
       </c>
       <c r="F65">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-28 01:43:23</v>
+        <v>2023-09-30 10:28:17</v>
       </c>
       <c r="B66">
-        <v>31.7</v>
+        <v>29</v>
       </c>
       <c r="C66">
-        <v>45.19</v>
+        <v>40.86</v>
       </c>
       <c r="D66">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="E66">
-        <v>30.3</v>
+        <v>28</v>
       </c>
       <c r="F66">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-28 06:53:23</v>
+        <v>2023-09-30 15:38:16</v>
       </c>
       <c r="B67">
-        <v>31.9</v>
+        <v>28.9</v>
       </c>
       <c r="C67">
-        <v>44.16</v>
+        <v>40.42</v>
       </c>
       <c r="D67">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="E67">
-        <v>30.7</v>
+        <v>27.7</v>
       </c>
       <c r="F67">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-28 12:03:21</v>
+        <v>2023-09-30 20:48:14</v>
       </c>
       <c r="B68">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C68">
-        <v>44.08</v>
+        <v>41.44</v>
       </c>
       <c r="D68">
-        <v>362</v>
+        <v>430</v>
       </c>
       <c r="E68">
-        <v>30.7</v>
+        <v>27.7</v>
       </c>
       <c r="F68">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-28 17:13:20</v>
+        <v>2023-10-01 01:58:20</v>
       </c>
       <c r="B69">
-        <v>31.19</v>
+        <v>27.55</v>
       </c>
       <c r="C69">
-        <v>43.5</v>
+        <v>41.44</v>
       </c>
       <c r="D69">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="E69">
-        <v>30.9</v>
+        <v>27</v>
       </c>
       <c r="F69">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-28 22:23:18</v>
+        <v>2023-10-01 07:08:20</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>27.75</v>
       </c>
       <c r="C70">
-        <v>42.04</v>
+        <v>39.9</v>
       </c>
       <c r="D70">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E70">
-        <v>30.1</v>
+        <v>26</v>
       </c>
       <c r="F70">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-29 03:33:16</v>
+        <v>2023-10-01 12:18:19</v>
       </c>
       <c r="B71">
-        <v>30.7</v>
+        <v>29.45</v>
       </c>
       <c r="C71">
-        <v>42.49</v>
+        <v>41.29</v>
       </c>
       <c r="D71">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E71">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="F71">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-29 08:43:14</v>
+        <v>2023-10-01 17:28:17</v>
       </c>
       <c r="B72">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="C72">
-        <v>43.37</v>
+        <v>39.83</v>
       </c>
       <c r="D72">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>27.5</v>
       </c>
       <c r="F72">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-29 13:54:34</v>
+        <v>2023-10-01 22:38:15</v>
       </c>
       <c r="B73">
-        <v>29.5</v>
+        <v>28.1</v>
       </c>
       <c r="C73">
-        <v>41.76</v>
+        <v>42.02</v>
       </c>
       <c r="D73">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E73">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="F73">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-29 19:03:20</v>
+        <v>2023-10-02 03:48:40</v>
       </c>
       <c r="B74">
-        <v>29.8</v>
+        <v>29.27</v>
       </c>
       <c r="C74">
-        <v>41.4</v>
+        <v>41.29</v>
       </c>
       <c r="D74">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E74">
-        <v>27.6</v>
+        <v>26.8</v>
       </c>
       <c r="F74">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-30 00:13:20</v>
+        <v>2023-10-02 08:58:20</v>
       </c>
       <c r="B75">
-        <v>30.09</v>
+        <v>29.37</v>
       </c>
       <c r="C75">
-        <v>41.47</v>
+        <v>40.17</v>
       </c>
       <c r="D75">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E75">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F75">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-30 05:18:19</v>
+        <v>2023-10-02 14:08:18</v>
       </c>
       <c r="B76">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C76">
-        <v>40.78</v>
+        <v>39.6</v>
       </c>
       <c r="D76">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="E76">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F76">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-30 10:28:17</v>
+        <v>2023-10-02 19:18:17</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>30.1</v>
       </c>
       <c r="C77">
-        <v>40.86</v>
+        <v>41.32</v>
       </c>
       <c r="D77">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E77">
         <v>28</v>
       </c>
       <c r="F77">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-30 15:38:16</v>
+        <v>2023-10-03 00:28:15</v>
       </c>
       <c r="B78">
-        <v>28.9</v>
+        <v>29.89</v>
       </c>
       <c r="C78">
-        <v>40.42</v>
+        <v>41.25</v>
       </c>
       <c r="D78">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="E78">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="F78">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-30 20:48:14</v>
+        <v>2023-10-03 05:38:21</v>
       </c>
       <c r="B79">
-        <v>27</v>
+        <v>29.89</v>
       </c>
       <c r="C79">
-        <v>41.44</v>
+        <v>40.51</v>
       </c>
       <c r="D79">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="E79">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="F79">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-01 01:58:20</v>
+        <v>2023-10-03 10:48:24</v>
       </c>
       <c r="B80">
-        <v>27.55</v>
+        <v>29.8</v>
       </c>
       <c r="C80">
-        <v>41.44</v>
+        <v>39.79</v>
       </c>
       <c r="D80">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="E80">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F80">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-01 07:08:20</v>
+        <v>2023-10-03 15:50:27</v>
       </c>
       <c r="B81">
-        <v>27.75</v>
+        <v>29.9</v>
       </c>
       <c r="C81">
-        <v>39.9</v>
+        <v>40.01</v>
       </c>
       <c r="D81">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="E81">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="F81">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-01 12:18:19</v>
+        <v>2023-10-03 21:01:24</v>
       </c>
       <c r="B82">
-        <v>29.45</v>
+        <v>29.99</v>
       </c>
       <c r="C82">
-        <v>41.29</v>
+        <v>43.1</v>
       </c>
       <c r="D82">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="E82">
         <v>26.2</v>
       </c>
       <c r="F82">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-01 17:28:17</v>
+        <v>2023-10-04 02:10:33</v>
       </c>
       <c r="B83">
-        <v>28.5</v>
+        <v>30.58</v>
       </c>
       <c r="C83">
-        <v>39.83</v>
+        <v>39.43</v>
       </c>
       <c r="D83">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="E83">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F83">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-01 22:38:15</v>
+        <v>2023-10-04 07:22:39</v>
       </c>
       <c r="B84">
-        <v>28.1</v>
+        <v>30</v>
       </c>
       <c r="C84">
-        <v>42.02</v>
+        <v>39.72</v>
       </c>
       <c r="D84">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="E84">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="F84">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-02 03:48:40</v>
+        <v>2023-10-04 12:32:25</v>
       </c>
       <c r="B85">
-        <v>29.27</v>
+        <v>30.88</v>
       </c>
       <c r="C85">
-        <v>41.29</v>
+        <v>42.83</v>
       </c>
       <c r="D85">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="E85">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="F85">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-02 08:58:20</v>
+        <v>2023-10-04 17:40:54</v>
       </c>
       <c r="B86">
-        <v>29.37</v>
+        <v>29.7</v>
       </c>
       <c r="C86">
-        <v>40.17</v>
+        <v>42.83</v>
       </c>
       <c r="D86">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E86">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="F86">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-02 14:08:18</v>
+        <v>2023-10-04 22:50:53</v>
       </c>
       <c r="B87">
-        <v>30</v>
+        <v>30.26</v>
       </c>
       <c r="C87">
-        <v>39.6</v>
+        <v>39.86</v>
       </c>
       <c r="D87">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E87">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="F87">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-02 19:18:17</v>
+        <v>2023-10-05 04:01:40</v>
       </c>
       <c r="B88">
-        <v>30.1</v>
+        <v>29.99</v>
       </c>
       <c r="C88">
-        <v>41.32</v>
+        <v>40.38</v>
       </c>
       <c r="D88">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E88">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="F88">
-        <v>76</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-03 00:28:15</v>
+        <v>2023-10-05 09:12:02</v>
       </c>
       <c r="B89">
-        <v>29.89</v>
+        <v>29.99</v>
       </c>
       <c r="C89">
-        <v>41.25</v>
+        <v>41.46</v>
       </c>
       <c r="D89">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="E89">
-        <v>27.2</v>
+        <v>29.1</v>
       </c>
       <c r="F89">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-03 05:38:21</v>
+        <v>2023-10-05 14:21:07</v>
       </c>
       <c r="B90">
-        <v>29.89</v>
+        <v>30</v>
       </c>
       <c r="C90">
-        <v>40.51</v>
+        <v>42.4</v>
       </c>
       <c r="D90">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E90">
-        <v>27.1</v>
+        <v>29.1</v>
       </c>
       <c r="F90">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-03 10:48:24</v>
+        <v>2023-10-05 19:31:20</v>
       </c>
       <c r="B91">
-        <v>29.8</v>
+        <v>30.44</v>
       </c>
       <c r="C91">
-        <v>39.79</v>
+        <v>41.39</v>
       </c>
       <c r="D91">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E91">
-        <v>27.1</v>
+        <v>29.4</v>
       </c>
       <c r="F91">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-03 15:50:27</v>
+        <v>2023-10-06 00:42:14</v>
       </c>
       <c r="B92">
-        <v>29.9</v>
+        <v>31.78</v>
       </c>
       <c r="C92">
-        <v>40.01</v>
+        <v>42.18</v>
       </c>
       <c r="D92">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E92">
-        <v>27.4</v>
+        <v>29.1</v>
       </c>
       <c r="F92">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-03 21:01:24</v>
+        <v>2023-10-06 05:51:28</v>
       </c>
       <c r="B93">
-        <v>29.99</v>
+        <v>31.88</v>
       </c>
       <c r="C93">
-        <v>43.1</v>
+        <v>43.06</v>
       </c>
       <c r="D93">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E93">
-        <v>26.2</v>
+        <v>29.2</v>
       </c>
       <c r="F93">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-04 02:10:33</v>
+        <v>2023-10-06 11:02:20</v>
       </c>
       <c r="B94">
-        <v>30.58</v>
+        <v>31.2</v>
       </c>
       <c r="C94">
-        <v>39.43</v>
+        <v>42.63</v>
       </c>
       <c r="D94">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="E94">
-        <v>27.2</v>
+        <v>29.2</v>
       </c>
       <c r="F94">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-04 07:22:39</v>
+        <v>2023-10-06 16:13:42</v>
       </c>
       <c r="B95">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C95">
-        <v>39.72</v>
+        <v>41.4</v>
       </c>
       <c r="D95">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="E95">
-        <v>27.3</v>
+        <v>29.1</v>
       </c>
       <c r="F95">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-04 12:32:25</v>
+        <v>2023-10-06 21:22:44</v>
       </c>
       <c r="B96">
-        <v>30.88</v>
+        <v>29.3</v>
       </c>
       <c r="C96">
-        <v>42.83</v>
+        <v>43.28</v>
       </c>
       <c r="D96">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="E96">
-        <v>27.7</v>
+        <v>29</v>
       </c>
       <c r="F96">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-04 17:40:54</v>
+        <v>2023-10-07 02:33:19</v>
       </c>
       <c r="B97">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="C97">
-        <v>42.83</v>
+        <v>43.28</v>
       </c>
       <c r="D97">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="E97">
-        <v>27.8</v>
+        <v>29.1</v>
       </c>
       <c r="F97">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-04 22:50:53</v>
+        <v>2023-10-07 07:43:01</v>
       </c>
       <c r="B98">
-        <v>30.26</v>
+        <v>29.99</v>
       </c>
       <c r="C98">
-        <v>39.86</v>
+        <v>41.66</v>
       </c>
       <c r="D98">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="E98">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="F98">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-05 04:01:40</v>
+        <v>2023-10-07 12:54:08</v>
       </c>
       <c r="B99">
-        <v>29.99</v>
+        <v>29</v>
       </c>
       <c r="C99">
-        <v>40.38</v>
+        <v>41.95</v>
       </c>
       <c r="D99">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="E99">
         <v>29.1</v>
       </c>
       <c r="F99">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-05 09:12:02</v>
+        <v>2023-10-07 18:03:02</v>
       </c>
       <c r="B100">
-        <v>29.99</v>
+        <v>29.56</v>
       </c>
       <c r="C100">
-        <v>41.46</v>
+        <v>42.53</v>
       </c>
       <c r="D100">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="E100">
         <v>29.1</v>
       </c>
       <c r="F100">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-05 14:21:07</v>
+        <v>2023-10-07 23:12:16</v>
       </c>
       <c r="B101">
-        <v>30</v>
+        <v>29.36</v>
       </c>
       <c r="C101">
-        <v>42.4</v>
+        <v>42.31</v>
       </c>
       <c r="D101">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E101">
-        <v>29.1</v>
+        <v>28.1</v>
       </c>
       <c r="F101">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-05 19:31:20</v>
+        <v>2023-10-08 04:22:14</v>
       </c>
       <c r="B102">
-        <v>30.44</v>
+        <v>29.06</v>
       </c>
       <c r="C102">
-        <v>41.39</v>
+        <v>41.73</v>
       </c>
       <c r="D102">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E102">
-        <v>29.4</v>
+        <v>28.5</v>
       </c>
       <c r="F102">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-06 00:42:14</v>
+        <v>2023-10-08 09:32:31</v>
       </c>
       <c r="B103">
-        <v>31.78</v>
+        <v>28.96</v>
       </c>
       <c r="C103">
-        <v>42.18</v>
+        <v>41.73</v>
       </c>
       <c r="D103">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="E103">
-        <v>29.1</v>
+        <v>27</v>
       </c>
       <c r="F103">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-06 05:51:28</v>
+        <v>2023-10-08 14:42:19</v>
       </c>
       <c r="B104">
-        <v>31.88</v>
+        <v>28.76</v>
       </c>
       <c r="C104">
-        <v>43.06</v>
+        <v>41.87</v>
       </c>
       <c r="D104">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="E104">
-        <v>29.2</v>
+        <v>27.1</v>
       </c>
       <c r="F104">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-06 11:02:20</v>
+        <v>2023-10-08 19:53:00</v>
       </c>
       <c r="B105">
-        <v>31.2</v>
+        <v>29.5</v>
       </c>
       <c r="C105">
-        <v>42.63</v>
+        <v>41.8</v>
       </c>
       <c r="D105">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="E105">
-        <v>29.2</v>
+        <v>28</v>
       </c>
       <c r="F105">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-06 16:13:42</v>
+        <v>2023-10-09 01:02:24</v>
       </c>
       <c r="B106">
-        <v>30.1</v>
+        <v>29.88</v>
       </c>
       <c r="C106">
-        <v>41.4</v>
+        <v>42.02</v>
       </c>
       <c r="D106">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="E106">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="F106">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-06 21:22:44</v>
+        <v>2023-10-09 06:14:31</v>
       </c>
       <c r="B107">
-        <v>29.3</v>
+        <v>29.88</v>
       </c>
       <c r="C107">
-        <v>43.28</v>
+        <v>41.66</v>
       </c>
       <c r="D107">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="E107">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="F107">
-        <v>73</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-07 02:33:19</v>
+        <v>2023-10-09 11:22:27</v>
       </c>
       <c r="B108">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C108">
-        <v>43.28</v>
+        <v>41.73</v>
       </c>
       <c r="D108">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E108">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F108">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-07 07:43:01</v>
+        <v>2023-10-09 16:34:05</v>
       </c>
       <c r="B109">
-        <v>29.99</v>
+        <v>29.37</v>
       </c>
       <c r="C109">
-        <v>41.66</v>
+        <v>41.73</v>
       </c>
       <c r="D109">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E109">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F109">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-07 12:54:08</v>
+        <v>2023-10-09 21:45:29</v>
       </c>
       <c r="B110">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="C110">
-        <v>41.95</v>
+        <v>41.73</v>
       </c>
       <c r="D110">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="E110">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="F110">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-07 18:03:02</v>
+        <v>2023-10-10 02:53:33</v>
       </c>
       <c r="B111">
-        <v>29.56</v>
+        <v>28.5</v>
       </c>
       <c r="C111">
-        <v>42.53</v>
+        <v>41.8</v>
       </c>
       <c r="D111">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="E111">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="F111">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-07 23:12:16</v>
+        <v>2023-10-10 08:03:12</v>
       </c>
       <c r="B112">
-        <v>29.36</v>
+        <v>28.5</v>
       </c>
       <c r="C112">
-        <v>42.31</v>
+        <v>42.88</v>
       </c>
       <c r="D112">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="E112">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="F112">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-08 04:22:14</v>
+        <v>2023-10-10 13:13:14</v>
       </c>
       <c r="B113">
-        <v>29.06</v>
+        <v>28.66</v>
       </c>
       <c r="C113">
-        <v>41.73</v>
+        <v>43.68</v>
       </c>
       <c r="D113">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E113">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F113">
         <v>97</v>
@@ -2542,622 +2542,662 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-08 09:32:31</v>
+        <v>2023-10-10 18:23:57</v>
       </c>
       <c r="B114">
-        <v>28.96</v>
+        <v>28.8</v>
       </c>
       <c r="C114">
-        <v>41.73</v>
+        <v>42.95</v>
       </c>
       <c r="D114">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="E114">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F114">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-08 14:42:19</v>
+        <v>2023-10-10 23:34:40</v>
       </c>
       <c r="B115">
-        <v>28.76</v>
+        <v>29.6</v>
       </c>
       <c r="C115">
-        <v>41.87</v>
+        <v>43.31</v>
       </c>
       <c r="D115">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E115">
-        <v>27.1</v>
+        <v>28</v>
       </c>
       <c r="F115">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-08 19:53:00</v>
+        <v>2023-10-11 04:43:14</v>
       </c>
       <c r="B116">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C116">
-        <v>41.8</v>
+        <v>43.41</v>
       </c>
       <c r="D116">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E116">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F116">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-09 01:02:24</v>
+        <v>2023-10-11 09:53:13</v>
       </c>
       <c r="B117">
-        <v>29.88</v>
+        <v>29.29</v>
       </c>
       <c r="C117">
-        <v>42.02</v>
+        <v>43.99</v>
       </c>
       <c r="D117">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E117">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="F117">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-09 06:14:31</v>
+        <v>2023-10-11 15:03:25</v>
       </c>
       <c r="B118">
-        <v>29.88</v>
+        <v>28.9</v>
       </c>
       <c r="C118">
-        <v>41.66</v>
+        <v>43.7</v>
       </c>
       <c r="D118">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="E118">
         <v>28.3</v>
       </c>
       <c r="F118">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-09 11:22:27</v>
+        <v>2023-10-11 20:13:34</v>
       </c>
       <c r="B119">
-        <v>29.5</v>
+        <v>29.05</v>
       </c>
       <c r="C119">
-        <v>41.73</v>
+        <v>42.97</v>
       </c>
       <c r="D119">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="E119">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="F119">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-09 16:34:05</v>
+        <v>2023-10-12 01:26:23</v>
       </c>
       <c r="B120">
-        <v>29.37</v>
+        <v>29.65</v>
       </c>
       <c r="C120">
-        <v>41.73</v>
+        <v>42.9</v>
       </c>
       <c r="D120">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E120">
-        <v>28.9</v>
+        <v>28.1</v>
       </c>
       <c r="F120">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-09 21:45:29</v>
+        <v>2023-10-12 06:33:43</v>
       </c>
       <c r="B121">
-        <v>28.5</v>
+        <v>29.69</v>
       </c>
       <c r="C121">
-        <v>41.73</v>
+        <v>43.8</v>
       </c>
       <c r="D121">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E121">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="F121">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-10 02:53:33</v>
+        <v>2023-10-12 11:45:34</v>
       </c>
       <c r="B122">
-        <v>28.5</v>
+        <v>29.48</v>
       </c>
       <c r="C122">
-        <v>41.8</v>
+        <v>42.63</v>
       </c>
       <c r="D122">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E122">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="F122">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-10 08:03:12</v>
+        <v>2023-10-12 16:53:48</v>
       </c>
       <c r="B123">
-        <v>28.5</v>
+        <v>29.24</v>
       </c>
       <c r="C123">
-        <v>42.88</v>
+        <v>42.78</v>
       </c>
       <c r="D123">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E123">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F123">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-10 13:13:14</v>
+        <v>2023-10-12 22:03:46</v>
       </c>
       <c r="B124">
-        <v>28.66</v>
+        <v>29.69</v>
       </c>
       <c r="C124">
-        <v>43.68</v>
+        <v>42.78</v>
       </c>
       <c r="D124">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E124">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F124">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-10 18:23:57</v>
+        <v>2023-10-13 03:13:57</v>
       </c>
       <c r="B125">
-        <v>28.8</v>
+        <v>29.38</v>
       </c>
       <c r="C125">
-        <v>42.95</v>
+        <v>43.36</v>
       </c>
       <c r="D125">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E125">
         <v>28</v>
       </c>
       <c r="F125">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-10 23:34:40</v>
+        <v>2023-10-13 08:23:52</v>
       </c>
       <c r="B126">
-        <v>29.6</v>
+        <v>29.69</v>
       </c>
       <c r="C126">
-        <v>43.31</v>
+        <v>42.87</v>
       </c>
       <c r="D126">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="E126">
         <v>28</v>
       </c>
       <c r="F126">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-11 04:43:14</v>
+        <v>2023-10-13 13:28:42</v>
       </c>
       <c r="B127">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="C127">
-        <v>43.41</v>
+        <v>43.16</v>
       </c>
       <c r="D127">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="E127">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F127">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-11 09:53:13</v>
+        <v>2023-10-13 18:37:30</v>
       </c>
       <c r="B128">
-        <v>29.29</v>
+        <v>28.2</v>
       </c>
       <c r="C128">
-        <v>43.99</v>
+        <v>43.3</v>
       </c>
       <c r="D128">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E128">
         <v>28.1</v>
       </c>
       <c r="F128">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-11 15:03:25</v>
+        <v>2023-10-13 23:49:05</v>
       </c>
       <c r="B129">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C129">
-        <v>43.7</v>
+        <v>44.03</v>
       </c>
       <c r="D129">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E129">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F129">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-11 20:13:34</v>
+        <v>2023-10-14 04:57:37</v>
       </c>
       <c r="B130">
-        <v>29.05</v>
+        <v>27.9</v>
       </c>
       <c r="C130">
-        <v>42.97</v>
+        <v>43.47</v>
       </c>
       <c r="D130">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="E130">
         <v>28</v>
       </c>
       <c r="F130">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-12 01:26:23</v>
+        <v>2023-10-14 10:07:36</v>
       </c>
       <c r="B131">
-        <v>29.65</v>
+        <v>27.9</v>
       </c>
       <c r="C131">
-        <v>42.9</v>
+        <v>43.03</v>
       </c>
       <c r="D131">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="E131">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F131">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-12 06:33:43</v>
+        <v>2023-10-14 15:19:55</v>
       </c>
       <c r="B132">
-        <v>29.69</v>
+        <v>29.19</v>
       </c>
       <c r="C132">
-        <v>43.8</v>
+        <v>42.88</v>
       </c>
       <c r="D132">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E132">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="F132">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-12 11:45:34</v>
+        <v>2023-10-14 20:27:42</v>
       </c>
       <c r="B133">
-        <v>29.48</v>
+        <v>29.43</v>
       </c>
       <c r="C133">
-        <v>42.63</v>
+        <v>42.88</v>
       </c>
       <c r="D133">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="E133">
         <v>28.1</v>
       </c>
       <c r="F133">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-12 16:53:48</v>
+        <v>2023-10-15 01:37:40</v>
       </c>
       <c r="B134">
-        <v>29.24</v>
+        <v>29.8</v>
       </c>
       <c r="C134">
-        <v>42.78</v>
+        <v>43.25</v>
       </c>
       <c r="D134">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E134">
         <v>28</v>
       </c>
       <c r="F134">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-12 22:03:46</v>
+        <v>2023-10-15 06:48:01</v>
       </c>
       <c r="B135">
-        <v>29.69</v>
+        <v>29.4</v>
       </c>
       <c r="C135">
-        <v>42.78</v>
+        <v>43.68</v>
       </c>
       <c r="D135">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="E135">
         <v>28</v>
       </c>
       <c r="F135">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-13 03:13:57</v>
+        <v>2023-10-15 11:58:07</v>
       </c>
       <c r="B136">
-        <v>29.38</v>
+        <v>29.2</v>
       </c>
       <c r="C136">
-        <v>43.36</v>
+        <v>44.19</v>
       </c>
       <c r="D136">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="E136">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F136">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-13 08:23:52</v>
+        <v>2023-10-15 17:08:48</v>
       </c>
       <c r="B137">
-        <v>29.69</v>
+        <v>29.2</v>
       </c>
       <c r="C137">
-        <v>42.87</v>
+        <v>43.83</v>
       </c>
       <c r="D137">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="E137">
         <v>28</v>
       </c>
       <c r="F137">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-13 13:28:42</v>
+        <v>2023-10-15 22:17:59</v>
       </c>
       <c r="B138">
-        <v>28.7</v>
+        <v>27.89</v>
       </c>
       <c r="C138">
-        <v>43.16</v>
+        <v>43.9</v>
       </c>
       <c r="D138">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="E138">
-        <v>28</v>
+        <v>27.1</v>
       </c>
       <c r="F138">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-13 18:37:30</v>
+        <v>2023-10-16 03:27:57</v>
       </c>
       <c r="B139">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
       <c r="C139">
-        <v>43.3</v>
+        <v>43.24</v>
       </c>
       <c r="D139">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E139">
-        <v>28.1</v>
+        <v>27.3</v>
       </c>
       <c r="F139">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-13 23:49:05</v>
+        <v>2023-10-16 08:38:55</v>
       </c>
       <c r="B140">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="C140">
-        <v>44.03</v>
+        <v>43.36</v>
       </c>
       <c r="D140">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="E140">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F140">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-14 04:57:37</v>
+        <v>2023-10-16 13:48:02</v>
       </c>
       <c r="B141">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
       <c r="C141">
-        <v>43.47</v>
+        <v>43.5</v>
       </c>
       <c r="D141">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="E141">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F141">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-14 10:07:36</v>
+        <v>2023-10-16 18:59:14</v>
       </c>
       <c r="B142">
-        <v>27.9</v>
+        <v>27.95</v>
       </c>
       <c r="C142">
-        <v>43.03</v>
+        <v>42.28</v>
       </c>
       <c r="D142">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="E142">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F142">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-14 15:19:55</v>
+        <v>2023-10-17 00:08:03</v>
       </c>
       <c r="B143">
-        <v>29.19</v>
+        <v>28</v>
       </c>
       <c r="C143">
-        <v>42.88</v>
+        <v>42.21</v>
       </c>
       <c r="D143">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="E143">
-        <v>28</v>
+        <v>27.3</v>
       </c>
       <c r="F143">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-14 20:27:42</v>
+        <v>2023-10-17 05:18:01</v>
       </c>
       <c r="B144">
-        <v>29.43</v>
+        <v>28</v>
       </c>
       <c r="C144">
-        <v>42.88</v>
+        <v>43.28</v>
       </c>
       <c r="D144">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="E144">
-        <v>28.1</v>
+        <v>27.4</v>
       </c>
       <c r="F144">
-        <v>92</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>2023-10-17 10:28:01</v>
+      </c>
+      <c r="B145">
+        <v>28.15</v>
+      </c>
+      <c r="C145">
+        <v>42.48</v>
+      </c>
+      <c r="D145">
+        <v>394</v>
+      </c>
+      <c r="E145">
+        <v>27.3</v>
+      </c>
+      <c r="F145">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>2023-10-17 15:39:01</v>
+      </c>
+      <c r="B146">
+        <v>27.37</v>
+      </c>
+      <c r="C146">
+        <v>42.92</v>
+      </c>
+      <c r="D146">
+        <v>407</v>
+      </c>
+      <c r="E146">
+        <v>27.1</v>
+      </c>
+      <c r="F146">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3209,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F144"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F146"/>
   </ignoredErrors>
 </worksheet>
 </file>